--- a/docs/Test_Cases.xlsx
+++ b/docs/Test_Cases.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="148">
   <si>
     <t>Lab Name</t>
   </si>
@@ -146,6 +146,27 @@
   </si>
   <si>
     <t>Refer to the test step id 3</t>
+  </si>
+  <si>
+    <t>Polygon rendering</t>
+  </si>
+  <si>
+    <t>Frame loaded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To draw a polygon on the start of experiment </t>
+  </si>
+  <si>
+    <t>1. Write a polygon coordinates(all values within frame lengths) 2. Click “Start experiment”</t>
+  </si>
+  <si>
+    <t>Polygon should show up in yellow lines</t>
+  </si>
+  <si>
+    <t>1. Write a polygon coordinates(negative and outside frame lengths) 2. Click “Start experiment”</t>
+  </si>
+  <si>
+    <t>Error message. But it draws a distorted polygon</t>
   </si>
   <si>
     <t>Rasterisation</t>
@@ -1895,7 +1916,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2119,7 +2140,9 @@
         <v>31</v>
       </c>
       <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
+      <c r="M4" t="s" s="4">
+        <v>26</v>
+      </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
@@ -2167,7 +2190,9 @@
       <c r="L5" t="s" s="4">
         <v>41</v>
       </c>
-      <c r="M5" s="5"/>
+      <c r="M5" t="s" s="4">
+        <v>26</v>
+      </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
@@ -2213,7 +2238,9 @@
         <v>31</v>
       </c>
       <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
+      <c r="M6" t="s" s="4">
+        <v>26</v>
+      </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
@@ -2244,22 +2271,24 @@
         <v>37</v>
       </c>
       <c r="G7" t="s" s="4">
+        <v>44</v>
+      </c>
+      <c r="H7" t="s" s="6">
         <v>47</v>
       </c>
-      <c r="H7" t="s" s="6">
+      <c r="I7" t="s" s="6">
         <v>48</v>
-      </c>
-      <c r="I7" t="s" s="6">
-        <v>49</v>
       </c>
       <c r="J7" t="s" s="4">
         <v>14</v>
       </c>
       <c r="K7" t="s" s="4">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
+      <c r="M7" t="s" s="4">
+        <v>26</v>
+      </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
@@ -2269,6 +2298,102 @@
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
+    </row>
+    <row r="8" ht="150.75" customHeight="1">
+      <c r="A8" t="s" s="4">
+        <v>17</v>
+      </c>
+      <c r="B8" s="3">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s" s="4">
+        <v>49</v>
+      </c>
+      <c r="D8" t="s" s="4">
+        <v>50</v>
+      </c>
+      <c r="E8" s="4">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s" s="4">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s" s="4">
+        <v>51</v>
+      </c>
+      <c r="H8" t="s" s="6">
+        <v>52</v>
+      </c>
+      <c r="I8" t="s" s="6">
+        <v>53</v>
+      </c>
+      <c r="J8" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="K8" t="s" s="4">
+        <v>31</v>
+      </c>
+      <c r="L8" s="5"/>
+      <c r="M8" t="s" s="4">
+        <v>26</v>
+      </c>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+    </row>
+    <row r="9" ht="150.75" customHeight="1">
+      <c r="A9" t="s" s="4">
+        <v>17</v>
+      </c>
+      <c r="B9" s="3">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s" s="4">
+        <v>49</v>
+      </c>
+      <c r="D9" t="s" s="4">
+        <v>50</v>
+      </c>
+      <c r="E9" s="4">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s" s="4">
+        <v>37</v>
+      </c>
+      <c r="G9" t="s" s="4">
+        <v>54</v>
+      </c>
+      <c r="H9" t="s" s="6">
+        <v>55</v>
+      </c>
+      <c r="I9" t="s" s="6">
+        <v>56</v>
+      </c>
+      <c r="J9" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="K9" t="s" s="4">
+        <v>24</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="M9" t="s" s="4">
+        <v>26</v>
+      </c>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2317,22 +2442,22 @@
     </row>
     <row r="3" ht="19" customHeight="1">
       <c r="A3" t="s" s="11">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s" s="11">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s" s="11">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D3" t="s" s="11">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s" s="11">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F3" t="s" s="11">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" ht="19" customHeight="1">
@@ -2340,39 +2465,39 @@
         <v>31</v>
       </c>
       <c r="B4" t="s" s="13">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s" s="13">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s" s="13">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E4" s="12">
         <v>10</v>
       </c>
       <c r="F4" t="s" s="13">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" ht="19" customHeight="1">
       <c r="A5" t="s" s="13">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s" s="13">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s" s="13">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D5" t="s" s="13">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E5" t="s" s="13">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F5" t="s" s="13">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" ht="19" customHeight="1">
@@ -2380,16 +2505,16 @@
         <v>31</v>
       </c>
       <c r="B6" t="s" s="13">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s" s="13">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D6" t="s" s="13">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E6" t="s" s="13">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F6" s="14"/>
     </row>
@@ -2398,10 +2523,10 @@
         <v>31</v>
       </c>
       <c r="B7" t="s" s="13">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s" s="13">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D7" s="12">
         <v>10</v>
@@ -2410,27 +2535,27 @@
         <v>11</v>
       </c>
       <c r="F7" t="s" s="13">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" ht="19" customHeight="1">
       <c r="A8" t="s" s="13">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B8" t="s" s="13">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s" s="13">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D8" t="s" s="13">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E8" t="s" s="13">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F8" t="s" s="13">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" ht="19" customHeight="1">
@@ -2438,36 +2563,36 @@
         <v>47</v>
       </c>
       <c r="B9" t="s" s="13">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s" s="13">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s" s="13">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E9" t="s" s="13">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F9" t="s" s="13">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" ht="19" customHeight="1">
       <c r="A10" t="s" s="13">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B10" t="s" s="13">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s" s="13">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D10" t="s" s="13">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E10" t="s" s="13">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F10" s="14"/>
     </row>
@@ -2476,17 +2601,17 @@
         <v>54</v>
       </c>
       <c r="B11" t="s" s="13">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C11" t="s" s="13">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D11" t="s" s="13">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" t="s" s="13">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" ht="19" customHeight="1">
@@ -2494,10 +2619,10 @@
         <v>54</v>
       </c>
       <c r="B12" t="s" s="13">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s" s="13">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
@@ -2508,31 +2633,31 @@
         <v>56</v>
       </c>
       <c r="B13" t="s" s="13">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C13" t="s" s="13">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D13" t="s" s="13">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" t="s" s="13">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" ht="19" customHeight="1">
       <c r="A14" t="s" s="13">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B14" t="s" s="13">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C14" t="s" s="13">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D14" t="s" s="13">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
@@ -2542,13 +2667,13 @@
         <v>64102</v>
       </c>
       <c r="B15" t="s" s="13">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C15" t="s" s="13">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D15" t="s" s="13">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
@@ -2558,10 +2683,10 @@
         <v>64</v>
       </c>
       <c r="B16" t="s" s="13">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C16" t="s" s="13">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
@@ -2569,19 +2694,19 @@
     </row>
     <row r="17" ht="19" customHeight="1">
       <c r="A17" t="s" s="13">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B17" t="s" s="13">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C17" t="s" s="13">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D17" t="s" s="13">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E17" t="s" s="13">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="F17" s="14"/>
     </row>
@@ -2590,10 +2715,10 @@
         <v>75</v>
       </c>
       <c r="B18" t="s" s="13">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C18" t="s" s="13">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D18" s="12">
         <v>10</v>
@@ -2608,16 +2733,16 @@
         <v>81</v>
       </c>
       <c r="B19" t="s" s="13">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C19" t="s" s="13">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D19" t="s" s="13">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E19" t="s" s="13">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="F19" s="14"/>
     </row>
@@ -2626,19 +2751,19 @@
         <v>97</v>
       </c>
       <c r="B20" t="s" s="13">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C20" t="s" s="13">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D20" t="s" s="13">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E20" s="12">
         <v>197</v>
       </c>
       <c r="F20" t="s" s="13">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" ht="19" customHeight="1">
@@ -2646,16 +2771,16 @@
         <v>99</v>
       </c>
       <c r="B21" t="s" s="13">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C21" t="s" s="13">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D21" t="s" s="13">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E21" t="s" s="13">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F21" s="14"/>
     </row>
@@ -2664,16 +2789,16 @@
         <v>127</v>
       </c>
       <c r="B22" t="s" s="13">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C22" t="s" s="13">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="D22" t="s" s="13">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="E22" t="s" s="13">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="F22" s="14"/>
     </row>
@@ -2682,16 +2807,16 @@
         <v>132</v>
       </c>
       <c r="B23" t="s" s="13">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C23" t="s" s="13">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="D23" t="s" s="13">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E23" t="s" s="13">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F23" s="14"/>
     </row>
@@ -2700,16 +2825,16 @@
         <v>251</v>
       </c>
       <c r="B24" t="s" s="13">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C24" t="s" s="13">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D24" t="s" s="13">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E24" t="s" s="13">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="F24" s="14"/>
     </row>
@@ -2718,16 +2843,16 @@
         <v>292</v>
       </c>
       <c r="B25" t="s" s="13">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C25" t="s" s="13">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="D25" t="s" s="13">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E25" t="s" s="13">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="F25" s="14"/>
     </row>
@@ -2736,16 +2861,16 @@
         <v>396</v>
       </c>
       <c r="B26" t="s" s="13">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="C26" t="s" s="13">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D26" t="s" s="13">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E26" t="s" s="13">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F26" s="14"/>
     </row>
@@ -2754,16 +2879,16 @@
         <v>542</v>
       </c>
       <c r="B27" t="s" s="13">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C27" t="s" s="13">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="D27" t="s" s="13">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E27" t="s" s="13">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="F27" s="14"/>
     </row>
@@ -2772,16 +2897,16 @@
         <v>611</v>
       </c>
       <c r="B28" t="s" s="13">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C28" t="s" s="13">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="D28" t="s" s="13">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E28" t="s" s="13">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="F28" s="14"/>
     </row>
